--- a/data/depot/Spending Drivers - Higher - Instructional and Total Employment and Payroll.xlsx
+++ b/data/depot/Spending Drivers - Higher - Instructional and Total Employment and Payroll.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Employment" sheetId="2" r:id="rId1"/>
@@ -1018,12 +1018,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
@@ -2034,12 +2035,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
